--- a/doc/23.xlsx
+++ b/doc/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>序号</t>
   </si>
@@ -54,7 +54,13 @@
     <t>手机号码</t>
   </si>
   <si>
-    <t>石睦南</t>
+    <t>赵冰龙</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>021345</t>
   </si>
   <si>
     <t>城北支公司</t>
@@ -72,6 +78,126 @@
     <t>南宁市区农村信用合作联社</t>
   </si>
   <si>
+    <t>团队名称</t>
+  </si>
+  <si>
+    <t>营销员姓名</t>
+  </si>
+  <si>
+    <t>谢日萍</t>
+  </si>
+  <si>
+    <t>15188188</t>
+  </si>
+  <si>
+    <t>45010409</t>
+  </si>
+  <si>
+    <t>南宁市城北支公司营销业务一部</t>
+  </si>
+  <si>
+    <t>13878865144</t>
+  </si>
+  <si>
+    <t>廖静</t>
+  </si>
+  <si>
+    <t>45r92813</t>
+  </si>
+  <si>
+    <t>450104198206110522</t>
+  </si>
+  <si>
+    <t>6222082102001146306</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市明秀支行</t>
+  </si>
+  <si>
+    <t>13877182600</t>
+  </si>
+  <si>
+    <t>苏小贤</t>
+  </si>
+  <si>
+    <t>45198124</t>
+  </si>
+  <si>
+    <t>450121198301241527</t>
+  </si>
+  <si>
+    <t>6222022102013722923</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市城北支行</t>
+  </si>
+  <si>
+    <t>15978195109</t>
+  </si>
+  <si>
+    <t>陈冬燕</t>
+  </si>
+  <si>
+    <t>45m79327</t>
+  </si>
+  <si>
+    <t>452528197810240526</t>
+  </si>
+  <si>
+    <t>6212252102001205107</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市高新支行</t>
+  </si>
+  <si>
+    <t>13978846430</t>
+  </si>
+  <si>
+    <t>李冬萍</t>
+  </si>
+  <si>
+    <t>10071823</t>
+  </si>
+  <si>
+    <t>452502197610188248</t>
+  </si>
+  <si>
+    <t>6212262102017900186</t>
+  </si>
+  <si>
+    <t>15877190581</t>
+  </si>
+  <si>
+    <t>文海敏</t>
+  </si>
+  <si>
+    <t>08032428</t>
+  </si>
+  <si>
+    <t>45212319871101134X</t>
+  </si>
+  <si>
+    <t>6229920500154688373</t>
+  </si>
+  <si>
+    <t>13978618699</t>
+  </si>
+  <si>
+    <t>覃春玉</t>
+  </si>
+  <si>
+    <t>84506801</t>
+  </si>
+  <si>
+    <t>452724198410021068</t>
+  </si>
+  <si>
+    <t>6229920500154688506</t>
+  </si>
+  <si>
+    <t>13978665525</t>
+  </si>
+  <si>
     <t>胡文波</t>
   </si>
   <si>
@@ -81,25 +207,64 @@
     <t>45010405</t>
   </si>
   <si>
-    <t>450104197407280013</t>
-  </si>
-  <si>
-    <t>6229920500115310612</t>
-  </si>
-  <si>
     <t>13807717991</t>
   </si>
   <si>
+    <t>兰晓丹</t>
+  </si>
+  <si>
+    <t>84500095</t>
+  </si>
+  <si>
+    <t>450104197311060040</t>
+  </si>
+  <si>
+    <t>6222082102000298686</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市朝阳支行</t>
+  </si>
+  <si>
+    <t>13978816165</t>
+  </si>
+  <si>
+    <t>黄莉</t>
+  </si>
+  <si>
+    <t>45w07947</t>
+  </si>
+  <si>
+    <t>45010407</t>
+  </si>
+  <si>
+    <t>南宁市城北支公司中介业务一部</t>
+  </si>
+  <si>
+    <t>13557710590</t>
+  </si>
+  <si>
+    <t>黄朝俊</t>
+  </si>
+  <si>
+    <t>452133199307113018</t>
+  </si>
+  <si>
+    <t>6212262102016221071</t>
+  </si>
+  <si>
+    <t>胡桂凤</t>
+  </si>
+  <si>
+    <t>450104199208102088</t>
+  </si>
+  <si>
+    <t>6222022102011728252</t>
+  </si>
+  <si>
     <t>韦居振</t>
   </si>
   <si>
     <t>84500099</t>
-  </si>
-  <si>
-    <t>450104197405150012</t>
-  </si>
-  <si>
-    <t>6229920500129771031</t>
   </si>
   <si>
     <r>
@@ -112,112 +277,64 @@
     </r>
   </si>
   <si>
-    <t>黄莉</t>
-  </si>
-  <si>
-    <t>45w07947</t>
-  </si>
-  <si>
-    <t>45010407</t>
-  </si>
-  <si>
-    <t>南宁市城北支公司中介业务一部</t>
-  </si>
-  <si>
-    <t>452502197912220266</t>
-  </si>
-  <si>
-    <t>6231330500006522929</t>
-  </si>
-  <si>
-    <t>13557710590</t>
-  </si>
-  <si>
-    <t>陆文利</t>
-  </si>
-  <si>
-    <t>45137580</t>
-  </si>
-  <si>
-    <t>450104196812111024</t>
-  </si>
-  <si>
-    <t>6229920500115310620</t>
-  </si>
-  <si>
-    <t>13978173916</t>
-  </si>
-  <si>
-    <t>谢日萍</t>
-  </si>
-  <si>
-    <t>15188188</t>
-  </si>
-  <si>
-    <t>45010409</t>
-  </si>
-  <si>
-    <t>南宁市城北支公司营销业务一部</t>
-  </si>
-  <si>
-    <t>450111198707301865</t>
-  </si>
-  <si>
-    <t>6222022102001991752</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市民族支行</t>
-  </si>
-  <si>
-    <t>黄琼</t>
-  </si>
-  <si>
-    <t>452122199102215441</t>
-  </si>
-  <si>
-    <t>6212262102015842844</t>
-  </si>
-  <si>
-    <t>中国工商银行南市北湖支行</t>
-  </si>
-  <si>
-    <t>18277120662</t>
-  </si>
-  <si>
-    <t>李河昆</t>
-  </si>
-  <si>
-    <t>45872432</t>
-  </si>
-  <si>
-    <t>45010429</t>
-  </si>
-  <si>
-    <t>南宁市城北支公司金光农场营销服务部</t>
-  </si>
-  <si>
-    <t>450103196810072512</t>
-  </si>
-  <si>
-    <t>6231330500003583718</t>
-  </si>
-  <si>
-    <t>13807889702</t>
-  </si>
-  <si>
-    <t>周洪江</t>
-  </si>
-  <si>
-    <t>45489424</t>
-  </si>
-  <si>
-    <t>450103196102062516</t>
-  </si>
-  <si>
-    <t>6229920500024596491</t>
-  </si>
-  <si>
-    <t>13807889701</t>
+    <t>丁文梁</t>
+  </si>
+  <si>
+    <t>520113199111120014</t>
+  </si>
+  <si>
+    <t>6212262102012723641</t>
+  </si>
+  <si>
+    <t>林燕萍</t>
+  </si>
+  <si>
+    <t>450111198601060629</t>
+  </si>
+  <si>
+    <t>6212262102007363072</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市西乡塘支行</t>
+  </si>
+  <si>
+    <t>梁翠琳</t>
+  </si>
+  <si>
+    <t>84506265</t>
+  </si>
+  <si>
+    <t>452124198710010747</t>
+  </si>
+  <si>
+    <t>6222022102008573125</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市琅东支行</t>
+  </si>
+  <si>
+    <t>13471111932</t>
+  </si>
+  <si>
+    <t>莫华</t>
+  </si>
+  <si>
+    <t>450821199301032138</t>
+  </si>
+  <si>
+    <t>6212262102020440741</t>
+  </si>
+  <si>
+    <t>黄翟</t>
+  </si>
+  <si>
+    <t>452730199104284718</t>
+  </si>
+  <si>
+    <t>6212262102011620970</t>
+  </si>
+  <si>
+    <t>中国工商银行南宁市衡阳中支行</t>
   </si>
   <si>
     <t>姜繁繁</t>
@@ -236,235 +353,10 @@
     </r>
   </si>
   <si>
-    <t>21060319830405652X</t>
-  </si>
-  <si>
-    <t>6231330680006006048</t>
+    <t>南宁市城北支公司金光农场营销服务部</t>
   </si>
   <si>
     <t>13877122208</t>
-  </si>
-  <si>
-    <t>潘江锋</t>
-  </si>
-  <si>
-    <t>84508412</t>
-  </si>
-  <si>
-    <t>450105197812062091</t>
-  </si>
-  <si>
-    <t>6212262102003762608</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市永新支行</t>
-  </si>
-  <si>
-    <t>18978994155</t>
-  </si>
-  <si>
-    <t>团队名称</t>
-  </si>
-  <si>
-    <t>营销员姓名</t>
-  </si>
-  <si>
-    <t>13878865144</t>
-  </si>
-  <si>
-    <t>廖静</t>
-  </si>
-  <si>
-    <t>45r92813</t>
-  </si>
-  <si>
-    <t>450104198206110522</t>
-  </si>
-  <si>
-    <t>6222082102001146306</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市明秀支行</t>
-  </si>
-  <si>
-    <t>13877182600</t>
-  </si>
-  <si>
-    <t>苏小贤</t>
-  </si>
-  <si>
-    <t>45198124</t>
-  </si>
-  <si>
-    <t>450121198301241527</t>
-  </si>
-  <si>
-    <t>6222022102013722923</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市城北支行</t>
-  </si>
-  <si>
-    <t>15978195109</t>
-  </si>
-  <si>
-    <t>陈冬燕</t>
-  </si>
-  <si>
-    <t>45m79327</t>
-  </si>
-  <si>
-    <t>452528197810240526</t>
-  </si>
-  <si>
-    <t>6212252102001205107</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市高新支行</t>
-  </si>
-  <si>
-    <t>13978846430</t>
-  </si>
-  <si>
-    <t>李冬萍</t>
-  </si>
-  <si>
-    <t>10071823</t>
-  </si>
-  <si>
-    <t>452502197610188248</t>
-  </si>
-  <si>
-    <t>6212262102017900186</t>
-  </si>
-  <si>
-    <t>15877190581</t>
-  </si>
-  <si>
-    <t>文海敏</t>
-  </si>
-  <si>
-    <t>08032428</t>
-  </si>
-  <si>
-    <t>45212319871101134X</t>
-  </si>
-  <si>
-    <t>6229920500154688373</t>
-  </si>
-  <si>
-    <t>13978618699</t>
-  </si>
-  <si>
-    <t>覃春玉</t>
-  </si>
-  <si>
-    <t>84506801</t>
-  </si>
-  <si>
-    <t>452724198410021068</t>
-  </si>
-  <si>
-    <t>6229920500154688506</t>
-  </si>
-  <si>
-    <t>13978665525</t>
-  </si>
-  <si>
-    <t>兰晓丹</t>
-  </si>
-  <si>
-    <t>84500095</t>
-  </si>
-  <si>
-    <t>450104197311060040</t>
-  </si>
-  <si>
-    <t>6222082102000298686</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市朝阳支行</t>
-  </si>
-  <si>
-    <t>13978816165</t>
-  </si>
-  <si>
-    <t>黄朝俊</t>
-  </si>
-  <si>
-    <t>452133199307113018</t>
-  </si>
-  <si>
-    <t>6212262102016221071</t>
-  </si>
-  <si>
-    <t>胡桂凤</t>
-  </si>
-  <si>
-    <t>450104199208102088</t>
-  </si>
-  <si>
-    <t>6222022102011728252</t>
-  </si>
-  <si>
-    <t>丁文梁</t>
-  </si>
-  <si>
-    <t>520113199111120014</t>
-  </si>
-  <si>
-    <t>6212262102012723641</t>
-  </si>
-  <si>
-    <t>林燕萍</t>
-  </si>
-  <si>
-    <t>450111198601060629</t>
-  </si>
-  <si>
-    <t>6212262102007363072</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市西乡塘支行</t>
-  </si>
-  <si>
-    <t>梁翠琳</t>
-  </si>
-  <si>
-    <t>84506265</t>
-  </si>
-  <si>
-    <t>452124198710010747</t>
-  </si>
-  <si>
-    <t>6222022102008573125</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市琅东支行</t>
-  </si>
-  <si>
-    <t>13471111932</t>
-  </si>
-  <si>
-    <t>莫华</t>
-  </si>
-  <si>
-    <t>450821199301032138</t>
-  </si>
-  <si>
-    <t>6212262102020440741</t>
-  </si>
-  <si>
-    <t>黄翟</t>
-  </si>
-  <si>
-    <t>452730199104284718</t>
-  </si>
-  <si>
-    <t>6212262102011620970</t>
-  </si>
-  <si>
-    <t>中国工商银行南宁市衡阳中支行</t>
   </si>
   <si>
     <t>李妙容</t>
@@ -849,20 +741,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -891,8 +777,14 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -2046,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2119,844 +2011,478 @@
       <c r="C2" s="4">
         <v>45934760</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="D2" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="F2" s="4">
         <v>45010400</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4">
         <v>45010405</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>20</v>
       </c>
       <c r="M2" s="4">
-        <v>13377000458</v>
+        <v>13618516602</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1">
       <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G3" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s" s="3">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" ht="33" customHeight="1">
       <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s" s="3">
-        <v>29</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" ht="33" customHeight="1">
       <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G5" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>36</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" ht="33" customHeight="1">
       <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G6" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s" s="3">
-        <v>41</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" ht="33" customHeight="1">
       <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G7" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="M7" s="9">
-        <v>13878865144</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" ht="33" customHeight="1">
       <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4">
-        <v>84510272</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G8" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s" s="3">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" ht="33" customHeight="1">
       <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G9" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="L9" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="M9" t="s" s="3">
-        <v>60</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" ht="33" customHeight="1">
       <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G10" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s" s="3">
-        <v>65</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" ht="33" customHeight="1">
       <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G11" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="K11" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s" s="3">
-        <v>71</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" ht="33" customHeight="1">
       <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4">
-        <v>45010400</v>
-      </c>
-      <c r="G12" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s" s="3">
-        <v>77</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" ht="33" customHeight="1">
       <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" ht="33" customHeight="1">
       <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="12"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" ht="33" customHeight="1">
       <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" ht="33" customHeight="1">
       <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" ht="33" customHeight="1">
       <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" ht="33" customHeight="1">
       <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" ht="33" customHeight="1">
       <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" ht="33" customHeight="1">
       <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" ht="33" customHeight="1">
       <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" ht="33" customHeight="1">
       <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" ht="33" customHeight="1">
       <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" ht="33" customHeight="1">
       <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" ht="33" customHeight="1">
       <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" ht="33" customHeight="1">
       <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" ht="33" customHeight="1">
       <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" ht="33" customHeight="1">
       <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" ht="33" customHeight="1">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" ht="33" customHeight="1">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" ht="33" customHeight="1">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" ht="33" customHeight="1">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" ht="33" customHeight="1">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" ht="33" customHeight="1">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" ht="33" customHeight="1">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" ht="33" customHeight="1">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" ht="33" customHeight="1">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" ht="33" customHeight="1">
-      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2975,23 +2501,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.1719" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.6719" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.3516" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="19.1719" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17.6719" style="13" customWidth="1"/>
-    <col min="12" max="12" width="19.6719" style="13" customWidth="1"/>
-    <col min="13" max="13" width="26.3516" style="13" customWidth="1"/>
-    <col min="14" max="14" width="28.5" style="13" customWidth="1"/>
-    <col min="15" max="15" width="37.8516" style="13" customWidth="1"/>
-    <col min="16" max="16" width="19.5" style="13" customWidth="1"/>
-    <col min="17" max="256" width="9" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.1719" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.3516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.6719" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.3516" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.1719" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.6719" style="11" customWidth="1"/>
+    <col min="12" max="12" width="19.6719" style="11" customWidth="1"/>
+    <col min="13" max="13" width="26.3516" style="11" customWidth="1"/>
+    <col min="14" max="14" width="28.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="37.8516" style="11" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="11" customWidth="1"/>
+    <col min="17" max="256" width="9" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1">
@@ -3026,10 +2552,10 @@
         <v>12</v>
       </c>
       <c r="K1" t="s" s="3">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s" s="3">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s" s="3">
         <v>9</v>
@@ -3048,367 +2574,367 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s" s="14">
-        <v>43</v>
+      <c r="B2" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="15">
+      <c r="E2" s="5"/>
+      <c r="F2" s="13">
         <v>45010400</v>
       </c>
-      <c r="G2" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s" s="16">
-        <v>80</v>
+      <c r="G2" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="O2" t="s" s="17">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="O2" t="s" s="15">
+        <v>32</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s" s="14">
-        <v>43</v>
+      <c r="B3" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="15">
+      <c r="E3" s="5"/>
+      <c r="F3" s="13">
         <v>45010400</v>
       </c>
-      <c r="G3" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s" s="16">
-        <v>80</v>
+      <c r="G3" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="O3" t="s" s="17">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="O3" t="s" s="15">
+        <v>38</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="13">
+        <v>45010400</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="N4" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="15">
-        <v>45010400</v>
-      </c>
-      <c r="G4" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="16">
+      <c r="O4" t="s" s="15">
         <v>44</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="P4" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="J4" t="s" s="16">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N4" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="O4" t="s" s="17">
-        <v>97</v>
-      </c>
-      <c r="P4" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="14">
-        <v>43</v>
+      <c r="B5" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="15">
+      <c r="E5" s="5"/>
+      <c r="F5" s="13">
         <v>45010400</v>
       </c>
-      <c r="G5" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s" s="16">
-        <v>80</v>
+      <c r="G5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="O5" t="s" s="17">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="O5" t="s" s="15">
+        <v>32</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="45" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>43</v>
+      <c r="B6" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="15">
+      <c r="E6" s="5"/>
+      <c r="F6" s="13">
         <v>45010400</v>
       </c>
-      <c r="G6" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s" s="16">
-        <v>80</v>
+      <c r="G6" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K6" t="s" s="3">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s" s="3">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s" s="3">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s" s="17">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="O6" t="s" s="15">
+        <v>20</v>
       </c>
       <c r="P6" t="s" s="3">
-        <v>108</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="45" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s" s="14">
-        <v>43</v>
+      <c r="B7" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="15">
+      <c r="E7" s="5"/>
+      <c r="F7" s="13">
         <v>45010400</v>
       </c>
-      <c r="G7" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s" s="16">
-        <v>80</v>
+      <c r="G7" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="O7" t="s" s="17">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="O7" t="s" s="15">
+        <v>20</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15">
+      <c r="B8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13">
         <v>45010400</v>
       </c>
-      <c r="G8" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s" s="14">
-        <v>24</v>
+      <c r="G8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="12">
+        <v>64</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s" s="3">
-        <v>117</v>
-      </c>
-      <c r="O8" t="s" s="17">
-        <v>118</v>
+        <v>68</v>
+      </c>
+      <c r="O8" t="s" s="15">
+        <v>69</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="15">
+      <c r="B9" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="13">
         <v>45010400</v>
       </c>
-      <c r="G9" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s" s="16">
-        <v>36</v>
+      <c r="G9" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L9" s="9">
+        <v>76</v>
+      </c>
+      <c r="L9" s="19">
         <v>84511894</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s" s="3">
-        <v>122</v>
-      </c>
-      <c r="O9" t="s" s="17">
-        <v>97</v>
-      </c>
-      <c r="P9" s="9">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="P9" s="19">
         <v>18260938609</v>
       </c>
     </row>
@@ -3416,45 +2942,45 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15">
+      <c r="B10" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="13">
         <v>45010400</v>
       </c>
-      <c r="G10" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s" s="14">
-        <v>24</v>
+      <c r="G10" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="12">
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L10" s="9">
+        <v>79</v>
+      </c>
+      <c r="L10" s="19">
         <v>84511975</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="O10" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="P10" s="9">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="P10" s="19">
         <v>13607810731</v>
       </c>
     </row>
@@ -3462,45 +2988,45 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15">
+      <c r="B11" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="13">
         <v>45010400</v>
       </c>
-      <c r="G11" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s" s="14">
-        <v>29</v>
+      <c r="G11" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L11" s="9">
+        <v>85</v>
+      </c>
+      <c r="L11" s="19">
         <v>84512202</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="O11" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="P11" s="9">
+        <v>87</v>
+      </c>
+      <c r="O11" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="P11" s="19">
         <v>13471068834</v>
       </c>
     </row>
@@ -3508,43 +3034,43 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="15">
+      <c r="B12" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="13">
         <v>45010400</v>
       </c>
-      <c r="G12" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s" s="14">
-        <v>29</v>
+      <c r="G12" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="L12" s="4">
         <v>84512955</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s" s="3">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s" s="3">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="P12" s="4">
         <v>13471184379</v>
@@ -3554,91 +3080,91 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s" s="14">
-        <v>43</v>
+      <c r="B13" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="15">
+      <c r="E13" s="5"/>
+      <c r="F13" s="13">
         <v>45010400</v>
       </c>
-      <c r="G13" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s" s="16">
-        <v>80</v>
+      <c r="G13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s" s="3">
-        <v>136</v>
-      </c>
-      <c r="O13" t="s" s="17">
-        <v>137</v>
+        <v>95</v>
+      </c>
+      <c r="O13" t="s" s="15">
+        <v>96</v>
       </c>
       <c r="P13" t="s" s="3">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="45" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15">
+      <c r="B14" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13">
         <v>45010400</v>
       </c>
-      <c r="G14" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s" s="16">
-        <v>36</v>
+      <c r="G14" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="L14" s="4">
         <v>84514366</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="N14" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="O14" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="P14" s="9">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="P14" s="19">
         <v>18778026629</v>
       </c>
     </row>
@@ -3646,43 +3172,43 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15">
+      <c r="B15" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="13">
         <v>45010400</v>
       </c>
-      <c r="G15" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s" s="16">
-        <v>36</v>
+      <c r="G15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="3">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="L15" s="4">
         <v>84514374</v>
       </c>
       <c r="M15" t="s" s="3">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s" s="3">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="O15" t="s" s="3">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="P15" s="4">
         <v>18777166062</v>
@@ -3692,45 +3218,45 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15">
+      <c r="B16" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="13">
         <v>45010400</v>
       </c>
-      <c r="G16" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s" s="14">
-        <v>68</v>
-      </c>
-      <c r="I16" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s" s="14">
-        <v>71</v>
+      <c r="G16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="J16" t="s" s="12">
+        <v>109</v>
       </c>
       <c r="K16" t="s" s="3">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="L16" s="4">
         <v>84514376</v>
       </c>
       <c r="M16" t="s" s="3">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="N16" t="s" s="3">
-        <v>148</v>
-      </c>
-      <c r="O16" t="s" s="17">
-        <v>91</v>
-      </c>
-      <c r="P16" s="9">
+        <v>112</v>
+      </c>
+      <c r="O16" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="P16" s="19">
         <v>18977783185</v>
       </c>
     </row>
@@ -3738,43 +3264,43 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="15">
+      <c r="B17" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="13">
         <v>45010400</v>
       </c>
-      <c r="G17" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s" s="16">
-        <v>36</v>
+      <c r="G17" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="3">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="L17" s="4">
         <v>84514736</v>
       </c>
       <c r="M17" t="s" s="3">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="N17" t="s" s="3">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s" s="3">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="P17" s="4">
         <v>13647870224</v>
@@ -3784,43 +3310,43 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="15">
+      <c r="B18" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="13">
         <v>45010400</v>
       </c>
-      <c r="G18" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s" s="16">
-        <v>36</v>
+      <c r="G18" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="3">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="L18" s="4">
         <v>84515073</v>
       </c>
       <c r="M18" t="s" s="3">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="O18" t="s" s="17">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="O18" t="s" s="15">
+        <v>38</v>
       </c>
       <c r="P18" s="4">
         <v>13077746990</v>
@@ -3830,43 +3356,43 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="15">
+      <c r="B19" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13">
         <v>45010400</v>
       </c>
-      <c r="G19" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s" s="16">
-        <v>36</v>
+      <c r="G19" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="3">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="L19" s="4">
         <v>84515074</v>
       </c>
       <c r="M19" t="s" s="3">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="N19" t="s" s="3">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s" s="3">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="P19" s="4">
         <v>15878761454</v>
@@ -3876,89 +3402,89 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="15">
+      <c r="B20" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13">
         <v>45010400</v>
       </c>
-      <c r="G20" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s" s="14">
-        <v>68</v>
-      </c>
-      <c r="I20" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="J20" t="s" s="14">
-        <v>71</v>
+      <c r="G20" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s" s="12">
+        <v>109</v>
       </c>
       <c r="K20" t="s" s="3">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s" s="3">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s" s="3">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="N20" t="s" s="3">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s" s="3">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s" s="3">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" ht="45" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="15">
+      <c r="B21" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="13">
         <v>45010400</v>
       </c>
-      <c r="G21" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s" s="16">
-        <v>36</v>
+      <c r="G21" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="3">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="L21" s="4">
         <v>84515635</v>
       </c>
       <c r="M21" t="s" s="3">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="N21" t="s" s="3">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s" s="3">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="P21" s="4">
         <v>18978981103</v>
@@ -3968,43 +3494,43 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s" s="14">
-        <v>43</v>
+      <c r="B22" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>24</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="15">
+      <c r="E22" s="5"/>
+      <c r="F22" s="13">
         <v>45010400</v>
       </c>
-      <c r="G22" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="J22" t="s" s="16">
-        <v>80</v>
+      <c r="G22" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="K22" t="s" s="3">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L22" s="4">
         <v>84516158</v>
       </c>
       <c r="M22" t="s" s="3">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="N22" t="s" s="3">
-        <v>172</v>
-      </c>
-      <c r="O22" t="s" s="17">
-        <v>85</v>
+        <v>136</v>
+      </c>
+      <c r="O22" t="s" s="15">
+        <v>32</v>
       </c>
       <c r="P22" s="4">
         <v>18275888162</v>
@@ -4014,89 +3540,89 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15">
+      <c r="B23" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13">
         <v>45010400</v>
       </c>
-      <c r="G23" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s" s="14">
-        <v>24</v>
+      <c r="G23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="12">
+        <v>64</v>
       </c>
       <c r="K23" t="s" s="3">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s" s="3">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s" s="3">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="O23" t="s" s="17">
-        <v>177</v>
+        <v>140</v>
+      </c>
+      <c r="O23" t="s" s="15">
+        <v>141</v>
       </c>
       <c r="P23" t="s" s="3">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" ht="45" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="15">
+      <c r="B24" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="13">
         <v>45010400</v>
       </c>
-      <c r="G24" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s" s="14">
-        <v>68</v>
-      </c>
-      <c r="I24" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="J24" t="s" s="14">
-        <v>71</v>
+      <c r="G24" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="J24" t="s" s="12">
+        <v>109</v>
       </c>
       <c r="K24" t="s" s="3">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="L24" s="4">
         <v>84516980</v>
       </c>
       <c r="M24" t="s" s="3">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="N24" t="s" s="3">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="O24" t="s" s="3">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="P24" s="4">
         <v>13077731159</v>
@@ -4106,135 +3632,135 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="16">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s" s="16">
-        <v>31</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="15">
+      <c r="B25" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="13">
         <v>45010400</v>
       </c>
-      <c r="G25" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="J25" t="s" s="16">
-        <v>36</v>
+      <c r="G25" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s" s="14">
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="3">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="L25" s="4">
         <v>84516981</v>
       </c>
       <c r="M25" t="s" s="3">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s" s="3">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="O25" t="s" s="3">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="P25" t="s" s="3">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" ht="45" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="15">
+      <c r="B26" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="13">
         <v>45010400</v>
       </c>
-      <c r="G26" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s" s="14">
-        <v>68</v>
-      </c>
-      <c r="I26" t="s" s="16">
-        <v>57</v>
-      </c>
-      <c r="J26" t="s" s="14">
-        <v>71</v>
+      <c r="G26" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="J26" t="s" s="12">
+        <v>109</v>
       </c>
       <c r="K26" t="s" s="3">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s" s="3">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s" s="3">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s" s="3">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s" s="3">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s" s="3">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="45" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="15">
+      <c r="B27" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="13">
         <v>45010400</v>
       </c>
-      <c r="G27" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="I27" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s" s="14">
-        <v>29</v>
+      <c r="G27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s" s="12">
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="3">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="L27" s="4">
         <v>84518201</v>
       </c>
       <c r="M27" t="s" s="3">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="N27" t="s" s="3">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="O27" t="s" s="3">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="P27" s="4">
         <v>18877540045</v>
@@ -4347,7 +3873,7 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -4367,7 +3893,7 @@
     </row>
     <row r="2" ht="78.75" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4388,7 +3914,7 @@
     <row r="3" ht="34.5" customHeight="1">
       <c r="A3" s="27"/>
       <c r="B3" t="s" s="26">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -4399,7 +3925,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" t="s" s="26">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -4439,13 +3965,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s" s="3">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s" s="3">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="N4" t="s" s="3">
         <v>10</v>
@@ -4461,741 +3987,741 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="33"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="33"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="32"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" ht="21" customHeight="1">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" ht="21" customHeight="1">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="31"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="31"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="32"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="31"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="32"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="32"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="31"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="31"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="31"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="32"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="31"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="32"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="32"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="32"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="32"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
     </row>
     <row r="40" ht="21" customHeight="1">
       <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="31"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="32"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="32"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
